--- a/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE14C345-9025-4938-B532-B4D10836F619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F209EF3-E0BB-4922-B818-E80D485DB4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -429,9 +429,6 @@
     </r>
   </si>
   <si>
-    <t>nu</t>
-  </si>
-  <si>
     <t>Se va insera CFG asociat codului sursa testat (poza, diagrama, etc.).</t>
   </si>
   <si>
@@ -483,9 +480,6 @@
     <t>F02. afisarea taskurilor active intro anumita perioada de timp</t>
   </si>
   <si>
-    <t>F02_TC03</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -513,13 +507,7 @@
     <t>2010-11-10,2011-12-12</t>
   </si>
   <si>
-    <t>2011-11-10,2014-12-13</t>
-  </si>
-  <si>
     <t>lista cu 0 elemente</t>
-  </si>
-  <si>
-    <t>lista cu 2 elemente</t>
   </si>
   <si>
     <t>start</t>
@@ -1207,16 +1195,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,10 +1216,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1265,42 +1250,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1310,54 +1297,72 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,23 +1372,77 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1406,12 +1465,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,32 +1480,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1460,64 +1492,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1541,23 +1519,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>179613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>625928</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>168094</xdr:rowOff>
+      <xdr:colOff>622047</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B121F1-158B-5708-8B3A-7658CB10BDF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2799C8-28DD-AB7F-3306-E40D9F4D3681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,58 +1551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="636814" y="1289956"/>
-          <a:ext cx="3853543" cy="3319509"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>615043</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>619464</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>141687</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660D8A3C-B479-D0E3-998A-8C8C3FA26DC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5110843" y="1295401"/>
-          <a:ext cx="4424021" cy="5693400"/>
+          <a:off x="625929" y="1289956"/>
+          <a:ext cx="3860547" cy="3505201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1928,28 +1856,26 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="14" width="8.921875" style="11"/>
-    <col min="15" max="15" width="19.69140625" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="8.921875" style="11"/>
+    <col min="15" max="15" width="19.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B1" s="14"/>
-      <c r="D1" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1967,21 +1893,21 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
+      <c r="N6" s="26"/>
+      <c r="O6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1990,13 +1916,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="31">
+      <c r="O7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="26">
         <v>234</v>
       </c>
     </row>
@@ -2005,40 +1931,40 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="31">
+      <c r="O8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="26">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="11" t="s">
-        <v>78</v>
+      <c r="B9" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="11" t="s">
-        <v>79</v>
+      <c r="B10" t="s">
+        <v>78</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="41" t="s">
-        <v>80</v>
+      <c r="B11" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2071,98 +1997,91 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.921875" style="11"/>
-    <col min="2" max="2" width="10" style="11" customWidth="1"/>
-    <col min="3" max="16" width="8.921875" style="11"/>
-    <col min="17" max="17" width="10.69140625" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.921875" style="11"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="17" max="17" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B1" s="14"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C2" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="I6" s="45" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="I6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="Q6" s="45" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="Q6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="I8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="50" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="I8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="38">
-        <v>3</v>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="33">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="49" t="s">
@@ -2170,20 +2089,20 @@
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="I9" s="43"/>
-      <c r="Q9" s="50" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="I9" s="37"/>
+      <c r="Q9" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="38">
-        <v>3</v>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="33">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -2191,30 +2110,30 @@
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="I10" s="54" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="I10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="Q10" s="50" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="50" t="s">
+      <c r="R10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="38">
-        <v>3</v>
+      <c r="S10" s="59"/>
+      <c r="T10" s="33">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="49" t="s">
@@ -2222,18 +2141,18 @@
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="49" t="s">
@@ -2241,18 +2160,18 @@
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -2260,24 +2179,24 @@
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
-      <c r="Q13" s="45" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="Q13" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="49" t="s">
@@ -2285,152 +2204,160 @@
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="59"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
-      <c r="Q15" s="36" t="s">
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="Q15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="63" t="s">
+      <c r="R15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
-      <c r="Q16" s="39" t="s">
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="Q16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="48" t="s">
+      <c r="R16" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="Q17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="Q17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17" s="48" t="s">
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="Q18" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
-      <c r="Q18" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="R18" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="59"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2447,14 +2374,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2470,460 +2389,448 @@
   <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B12" sqref="B12:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.921875" style="11"/>
-    <col min="2" max="2" width="12.3046875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18.23046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.23046875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.3828125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.23046875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.3046875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.69140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="6.07421875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="6.3828125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="5" style="11" customWidth="1"/>
-    <col min="14" max="14" width="8.921875" style="11"/>
-    <col min="15" max="15" width="11.765625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="8.765625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.921875" style="11" customWidth="1"/>
-    <col min="18" max="20" width="8.921875" style="11"/>
-    <col min="21" max="21" width="9.07421875" style="11" customWidth="1"/>
-    <col min="22" max="22" width="2.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.53515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.921875" style="11"/>
+    <col min="2" max="2" width="12.3046875" customWidth="1"/>
+    <col min="3" max="4" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.23046875" customWidth="1"/>
+    <col min="7" max="7" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.23046875" customWidth="1"/>
+    <col min="9" max="9" width="9.3046875" customWidth="1"/>
+    <col min="10" max="10" width="14.69140625" customWidth="1"/>
+    <col min="11" max="11" width="6.07421875" customWidth="1"/>
+    <col min="12" max="12" width="6.3828125" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="15" max="15" width="11.765625" customWidth="1"/>
+    <col min="16" max="16" width="8.765625" customWidth="1"/>
+    <col min="17" max="17" width="8.921875" customWidth="1"/>
+    <col min="21" max="21" width="9.07421875" customWidth="1"/>
+    <col min="22" max="22" width="2.23046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="2.07421875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.53515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.23046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.07421875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B1" s="14"/>
-      <c r="D1" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+    </row>
+    <row r="7" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+    </row>
+    <row r="8" spans="2:28" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="62"/>
+      <c r="C8" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="65">
+        <v>0</v>
+      </c>
+      <c r="W8" s="65">
+        <v>1</v>
+      </c>
+      <c r="X8" s="65">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="62"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+    </row>
+    <row r="10" spans="2:28" ht="31.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="70"/>
-      <c r="C8" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="64" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+    </row>
+    <row r="11" spans="2:28" ht="31.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66" t="s">
+      <c r="D11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="69">
-        <v>0</v>
-      </c>
-      <c r="W8" s="69">
-        <v>1</v>
-      </c>
-      <c r="X8" s="69">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA8" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB8" s="69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="70"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-    </row>
-    <row r="10" spans="2:28" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-    </row>
-    <row r="11" spans="2:28" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-    </row>
-    <row r="12" spans="2:28" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="B12" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
+      <c r="F11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+    </row>
+    <row r="12" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
     </row>
     <row r="13" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
     </row>
     <row r="14" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
     </row>
     <row r="15" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
     </row>
     <row r="16" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="22"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2940,20 +2847,6 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2968,90 +2861,85 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="B16" sqref="B16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.921875" style="11"/>
-    <col min="3" max="3" width="7.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.921875" style="11"/>
-    <col min="10" max="10" width="7.23046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.07421875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.07421875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.921875" style="11"/>
-    <col min="15" max="15" width="12.3046875" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="8.921875" style="11"/>
+    <col min="3" max="3" width="7.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.23046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.07421875" customWidth="1"/>
+    <col min="13" max="13" width="16.07421875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B1" s="14"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="92" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="93"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="100"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3060,111 +2948,99 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="32.15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>9</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="40">
         <v>40128</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="40">
         <v>40524</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="17" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="31.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="20">
+        <v>10</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="41">
+        <v>40492</v>
+      </c>
+      <c r="F7" s="41">
+        <v>40889</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="23">
-        <v>10</v>
-      </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="117">
-        <v>40492</v>
-      </c>
-      <c r="F7" s="117">
-        <v>40889</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="31.75" x14ac:dyDescent="0.4">
-      <c r="B8" s="23">
-        <v>11</v>
-      </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="117">
-        <v>40857</v>
-      </c>
-      <c r="F8" s="117">
-        <v>41986</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>98</v>
-      </c>
+      <c r="L7" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="20"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="101"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
-      <c r="C10" s="102"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="8"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3179,129 +3055,121 @@
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="2:14" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="107" t="s">
+      <c r="G13" s="111"/>
+      <c r="H13" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="77" t="s">
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="78"/>
+      <c r="N13" s="99"/>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="80" t="s">
+      <c r="J14" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="96" t="s">
+      <c r="K14" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="75" t="s">
+      <c r="M14" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="87" t="s">
+      <c r="N14" s="83" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="79"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="84"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="103"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="31">
-        <v>3</v>
-      </c>
-      <c r="C16" s="28">
-        <v>1</v>
-      </c>
-      <c r="D16" s="28">
-        <v>2</v>
-      </c>
-      <c r="E16" s="29">
-        <v>100</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="31">
-        <f>SUM(J16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="28">
-        <v>0</v>
-      </c>
-      <c r="K16" s="32">
-        <v>0</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="34">
-        <f>C16</f>
-        <v>1</v>
-      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3316,23 +3184,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3340,15 +3191,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3492,6 +3334,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3499,14 +3350,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3524,6 +3367,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>

--- a/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F209EF3-E0BB-4922-B818-E80D485DB4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C526FAE9-0017-4464-9839-DF96195D1BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -468,15 +468,6 @@
     <t>Lomonar Cornel</t>
   </si>
   <si>
-    <t>1(F)-5</t>
-  </si>
-  <si>
-    <t>1(T)-2-3(F)-1(F)-5</t>
-  </si>
-  <si>
-    <t>1(T)-2-3(T)-4-1(F)-5</t>
-  </si>
-  <si>
     <t>F02. afisarea taskurilor active intro anumita perioada de timp</t>
   </si>
   <si>
@@ -486,27 +477,12 @@
     <t>List.hasNext()</t>
   </si>
   <si>
-    <t>nextTime != null &amp;&amp; nextTime apartine (start,end)</t>
-  </si>
-  <si>
-    <t>1, 2,3,5</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
     <t>2 dati, reprezinta interval</t>
   </si>
   <si>
     <t>lista</t>
   </si>
   <si>
-    <t>2009-11-11,2010-12-12</t>
-  </si>
-  <si>
-    <t>2010-11-10,2011-12-12</t>
-  </si>
-  <si>
     <t>lista cu 0 elemente</t>
   </si>
   <si>
@@ -517,6 +493,51 @@
   </si>
   <si>
     <t>lista cu 1 element</t>
+  </si>
+  <si>
+    <t>1(F)-8</t>
+  </si>
+  <si>
+    <t>1(T)-2-3(F)-1(F)-8</t>
+  </si>
+  <si>
+    <t>1(T)-2-3(T)-4(T)-5-1(F)-8</t>
+  </si>
+  <si>
+    <t>F02_P04</t>
+  </si>
+  <si>
+    <t>1(T)-2-3(T)-4(F)-6(F)-1(F)-8</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>1(T)-2-3(T)-4(F)-6(T)-7-1(F)-8</t>
+  </si>
+  <si>
+    <t>2010-01-01,2014-01-01</t>
+  </si>
+  <si>
+    <t>2005-01-01,2009-01-01</t>
+  </si>
+  <si>
+    <t>lista cu 2 elemente</t>
+  </si>
+  <si>
+    <t>1, 2,3,4,5,8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextTime != null </t>
+  </si>
+  <si>
+    <t>nextTime&lt;end</t>
+  </si>
+  <si>
+    <t>nextTime==end</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,6 +1321,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,9 +1336,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,12 +1363,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1357,29 +1402,77 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1411,9 +1504,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1429,74 +1519,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,22 +1544,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>625929</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179613</xdr:rowOff>
+      <xdr:colOff>615043</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>622047</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>168728</xdr:rowOff>
+      <xdr:colOff>616048</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2799C8-28DD-AB7F-3306-E40D9F4D3681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972C2174-200A-3C1B-CA7E-7B2CBB563DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,8 +1575,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="625929" y="1289956"/>
-          <a:ext cx="3860547" cy="3505201"/>
+          <a:off x="615043" y="1300842"/>
+          <a:ext cx="3865434" cy="3799115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615043</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>16488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30BA5D2-6011-2D55-CB80-048547B4AB2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5110843" y="1306286"/>
+          <a:ext cx="4457699" cy="6112488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1997,8 +2065,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2019,18 +2087,18 @@
       <c r="I1" s="44"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
@@ -2071,11 +2139,11 @@
       <c r="I8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="59" t="s">
+      <c r="Q8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
       <c r="T8" s="33">
         <v>5</v>
       </c>
@@ -2084,19 +2152,19 @@
       <c r="B9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="I9" s="37"/>
-      <c r="Q9" s="59" t="s">
+      <c r="Q9" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
       <c r="T9" s="33">
         <v>5</v>
       </c>
@@ -2105,29 +2173,29 @@
       <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="59" t="s">
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+      <c r="Q10" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="R10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="59"/>
+      <c r="S10" s="47"/>
       <c r="T10" s="33">
         <v>5</v>
       </c>
@@ -2136,58 +2204,58 @@
       <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
       <c r="Q13" s="42" t="s">
         <v>49</v>
       </c>
@@ -2199,29 +2267,29 @@
       <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
       <c r="Q15" s="31" t="s">
         <v>15</v>
       </c>
@@ -2232,132 +2300,132 @@
       <c r="T15" s="60"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
       <c r="Q16" s="34" t="s">
         <v>52</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="S16" s="45"/>
       <c r="T16" s="45"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
       <c r="Q17" s="34" t="s">
         <v>53</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="S17" s="45"/>
       <c r="T17" s="45"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
       <c r="Q18" s="34" t="s">
         <v>54</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="S18" s="45"/>
       <c r="T18" s="45"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="45"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="Q19" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="R19" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="S19" s="45"/>
       <c r="T19" s="45"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="45"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
+      <c r="Q20" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.4">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2374,6 +2442,14 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2388,8 +2464,8 @@
   </sheetPr>
   <dimension ref="B1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:AB12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2404,7 +2480,7 @@
     <col min="10" max="10" width="14.69140625" customWidth="1"/>
     <col min="11" max="11" width="6.07421875" customWidth="1"/>
     <col min="12" max="12" width="6.3828125" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="13" max="13" width="12.23046875" customWidth="1"/>
     <col min="15" max="15" width="11.765625" customWidth="1"/>
     <col min="16" max="16" width="8.765625" customWidth="1"/>
     <col min="17" max="17" width="8.921875" customWidth="1"/>
@@ -2427,153 +2503,161 @@
       <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B3" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
     </row>
     <row r="7" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="72" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="66" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="65" t="s">
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
     </row>
     <row r="8" spans="2:28" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="62"/>
-      <c r="C8" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="66" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="66" t="s">
+      <c r="Q8" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="70" t="s">
+      <c r="R8" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="65">
+      <c r="S8" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="U8" s="65"/>
+      <c r="V8" s="66">
         <v>0</v>
       </c>
-      <c r="W8" s="65">
+      <c r="W8" s="66">
         <v>1</v>
       </c>
-      <c r="X8" s="65">
+      <c r="X8" s="66">
         <v>2</v>
       </c>
-      <c r="Y8" s="65" t="s">
+      <c r="Y8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="65" t="s">
+      <c r="Z8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="65" t="s">
+      <c r="AA8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="65" t="s">
+      <c r="AB8" s="66" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="12" t="s">
         <v>25</v>
       </c>
@@ -2586,58 +2670,74 @@
       <c r="I9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
+      <c r="J9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
     </row>
     <row r="10" spans="2:28" ht="31.75" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
-      <c r="Q10" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
@@ -2646,7 +2746,7 @@
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
@@ -2656,34 +2756,38 @@
         <v>51</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="18"/>
@@ -2691,7 +2795,7 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
@@ -2817,20 +2921,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2847,6 +2937,20 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2861,14 +2965,14 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:N16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="7.23046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.07421875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
@@ -2889,57 +2993,57 @@
       <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="76" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="77"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="75"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="86"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2951,90 +3055,90 @@
       <c r="B6" s="20">
         <v>9</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="104" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="40">
-        <v>40128</v>
+      <c r="E6" s="112">
+        <v>40179</v>
       </c>
       <c r="F6" s="40">
-        <v>40524</v>
+        <v>41640</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="31.75" x14ac:dyDescent="0.4">
       <c r="B7" s="20">
         <v>10</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="41">
-        <v>40492</v>
+        <v>38353</v>
       </c>
       <c r="F7" s="41">
-        <v>40889</v>
+        <v>39814</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
       <c r="K7" s="14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B8" s="20"/>
-      <c r="C8" s="80"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="13"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" s="20"/>
-      <c r="C9" s="80"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="9"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
-      <c r="C10" s="81"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="8"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
@@ -3058,86 +3162,88 @@
       <c r="K12" s="22"/>
     </row>
     <row r="13" spans="2:14" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="110" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="91" t="s">
+      <c r="G13" s="76"/>
+      <c r="H13" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="98" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="99"/>
+      <c r="N13" s="96"/>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="106" t="s">
+      <c r="H14" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="89" t="s">
+      <c r="J14" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="108" t="s">
+      <c r="K14" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="94" t="s">
+      <c r="L14" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="96" t="s">
+      <c r="M14" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="78" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="100"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="103"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="79"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="26"/>
+      <c r="B16" s="26">
+        <v>2</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
@@ -3153,6 +3259,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="G14:G15"/>
@@ -3169,21 +3290,6 @@
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3191,6 +3297,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3334,22 +3455,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3365,21 +3488,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/lab3/Lab03_WBT_TCs_Form.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C526FAE9-0017-4464-9839-DF96195D1BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22152" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="F02.TCs" sheetId="11" r:id="rId3"/>
     <sheet name="WBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -543,7 +542,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1309,6 +1308,9 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1321,51 +1323,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1375,32 +1395,68 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1417,9 +1473,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,60 +1520,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,7 +1558,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972C2174-200A-3C1B-CA7E-7B2CBB563DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{972C2174-200A-3C1B-CA7E-7B2CBB563DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1602,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30BA5D2-6011-2D55-CB80-048547B4AB2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F30BA5D2-6011-2D55-CB80-048547B4AB2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,9 +1632,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1673,9 +1672,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1710,7 +1709,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1745,7 +1744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1918,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1928,26 +1927,26 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="19.69140625" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="11"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1957,7 +1956,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1967,7 +1966,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1994,7 +1993,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2009,7 +2008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>77</v>
       </c>
@@ -2022,7 +2021,7 @@
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>78</v>
       </c>
@@ -2030,7 +2029,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
         <v>79</v>
       </c>
@@ -2038,15 +2037,15 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2059,125 +2058,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.69140625" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="11"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="Q6" s="42" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="Q6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="I8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="47" t="s">
+      <c r="Q8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
       <c r="T8" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="I9" s="37"/>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
       <c r="T9" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="I10" s="51" t="s">
@@ -2189,26 +2188,26 @@
       <c r="M10" s="52"/>
       <c r="N10" s="52"/>
       <c r="O10" s="53"/>
-      <c r="Q10" s="47" t="s">
+      <c r="Q10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="47"/>
+      <c r="S10" s="60"/>
       <c r="T10" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="I11" s="54"/>
@@ -2219,15 +2218,15 @@
       <c r="N11" s="55"/>
       <c r="O11" s="56"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="I12" s="54"/>
@@ -2238,15 +2237,15 @@
       <c r="N12" s="55"/>
       <c r="O12" s="56"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="I13" s="54"/>
@@ -2256,22 +2255,22 @@
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
       <c r="O13" s="56"/>
-      <c r="Q13" s="42" t="s">
+      <c r="Q13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="I14" s="54"/>
@@ -2282,7 +2281,7 @@
       <c r="N14" s="55"/>
       <c r="O14" s="56"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I15" s="54"/>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
@@ -2293,13 +2292,13 @@
       <c r="Q15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="60" t="s">
+      <c r="R15" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I16" s="54"/>
       <c r="J16" s="55"/>
       <c r="K16" s="55"/>
@@ -2310,13 +2309,13 @@
       <c r="Q16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I17" s="54"/>
       <c r="J17" s="55"/>
       <c r="K17" s="55"/>
@@ -2327,13 +2326,13 @@
       <c r="Q17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I18" s="54"/>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
@@ -2344,13 +2343,13 @@
       <c r="Q18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I19" s="54"/>
       <c r="J19" s="55"/>
       <c r="K19" s="55"/>
@@ -2361,13 +2360,13 @@
       <c r="Q19" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I20" s="54"/>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
@@ -2378,13 +2377,13 @@
       <c r="Q20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="45" t="s">
+      <c r="R20" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I21" s="54"/>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
@@ -2393,11 +2392,11 @@
       <c r="N21" s="55"/>
       <c r="O21" s="56"/>
       <c r="Q21" s="34"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.4">
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I22" s="54"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
@@ -2406,7 +2405,7 @@
       <c r="N22" s="55"/>
       <c r="O22" s="56"/>
     </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I23" s="54"/>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
@@ -2415,7 +2414,7 @@
       <c r="N23" s="55"/>
       <c r="O23" s="56"/>
     </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="9:20" x14ac:dyDescent="0.3">
       <c r="I24" s="57"/>
       <c r="J24" s="58"/>
       <c r="K24" s="58"/>
@@ -2426,6 +2425,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2442,14 +2449,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2458,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -2468,116 +2467,116 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="3" max="4" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.23046875" customWidth="1"/>
-    <col min="7" max="7" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.23046875" customWidth="1"/>
-    <col min="9" max="9" width="9.3046875" customWidth="1"/>
-    <col min="10" max="10" width="14.69140625" customWidth="1"/>
-    <col min="11" max="11" width="6.07421875" customWidth="1"/>
-    <col min="12" max="12" width="6.3828125" customWidth="1"/>
-    <col min="13" max="13" width="12.23046875" customWidth="1"/>
-    <col min="15" max="15" width="11.765625" customWidth="1"/>
-    <col min="16" max="16" width="8.765625" customWidth="1"/>
-    <col min="17" max="17" width="8.921875" customWidth="1"/>
-    <col min="21" max="21" width="9.07421875" customWidth="1"/>
-    <col min="22" max="22" width="2.23046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.07421875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.53515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.23046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.07421875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" customWidth="1"/>
+    <col min="22" max="22" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B1" s="11"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B3" s="69" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B3" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="70" t="s">
+    <row r="6" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="64" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+    </row>
+    <row r="7" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="65" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="66" t="s">
         <v>20</v>
       </c>
@@ -2588,49 +2587,49 @@
       <c r="AA7" s="66"/>
       <c r="AB7" s="66"/>
     </row>
-    <row r="8" spans="2:28" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="70"/>
-      <c r="C8" s="61" t="s">
+    <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="63"/>
+      <c r="C8" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="63" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63" t="s">
+      <c r="G8" s="70"/>
+      <c r="H8" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63" t="s">
+      <c r="I8" s="70"/>
+      <c r="J8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
+      <c r="K8" s="70"/>
+      <c r="L8" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="65" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="67" t="s">
+      <c r="R8" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="67" t="s">
+      <c r="S8" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="T8" s="67" t="s">
+      <c r="T8" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="65"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="66">
         <v>0</v>
       </c>
@@ -2653,11 +2652,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="70"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
+    <row r="9" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="63"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="12" t="s">
         <v>25</v>
       </c>
@@ -2688,12 +2687,12 @@
       <c r="O9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="65"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="66"/>
       <c r="W9" s="66"/>
       <c r="X9" s="66"/>
@@ -2702,7 +2701,7 @@
       <c r="AA9" s="66"/>
       <c r="AB9" s="66"/>
     </row>
-    <row r="10" spans="2:28" ht="31.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>50</v>
       </c>
@@ -2751,7 +2750,7 @@
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
     </row>
-    <row r="11" spans="2:28" ht="31.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>51</v>
       </c>
@@ -2800,7 +2799,7 @@
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
     </row>
-    <row r="12" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="39"/>
       <c r="D12" s="14"/>
@@ -2829,7 +2828,7 @@
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
     </row>
-    <row r="13" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -2858,7 +2857,7 @@
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
     </row>
-    <row r="14" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
@@ -2887,7 +2886,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
     </row>
-    <row r="15" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -2916,11 +2915,25 @@
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
     </row>
-    <row r="16" spans="2:28" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2937,20 +2950,6 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2958,82 +2957,82 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.23046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.07421875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.07421875" customWidth="1"/>
-    <col min="13" max="13" width="16.07421875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3046875" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="11"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="97" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="98" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="100" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="101"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="99"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="109"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="78"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="2" t="s">
         <v>88</v>
       </c>
@@ -3042,8 +3041,8 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3051,17 +3050,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="32.15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" ht="31.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <v>9</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="83" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="112">
+      <c r="E6" s="42">
         <v>40179</v>
       </c>
       <c r="F6" s="40">
@@ -3069,8 +3068,8 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
       <c r="K6" s="14" t="s">
         <v>100</v>
       </c>
@@ -3078,11 +3077,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="31.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B7" s="20">
         <v>10</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="13" t="s">
         <v>51</v>
       </c>
@@ -3094,8 +3093,8 @@
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="14" t="s">
         <v>87</v>
       </c>
@@ -3103,46 +3102,46 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
-      <c r="C8" s="104"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="13"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
-      <c r="C9" s="104"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="9"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
-      <c r="C10" s="105"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="8"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3155,98 +3154,104 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="2:14" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="73" t="s">
+    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="73" t="s">
+      <c r="G13" s="95"/>
+      <c r="H13" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="95" t="s">
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="96"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="86" t="s">
+      <c r="N13" s="75"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="84" t="s">
+      <c r="K14" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="92" t="s">
+      <c r="L14" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="94" t="s">
+      <c r="M14" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="78" t="s">
+      <c r="N14" s="86" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="87"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="79"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="105"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="97"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="26">
         <v>2</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="C16" s="23">
+        <v>2</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>47</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
@@ -3259,6 +3264,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
@@ -3275,21 +3295,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3297,21 +3302,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3455,24 +3445,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3488,4 +3476,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>